--- a/Variable Chart.xlsx
+++ b/Variable Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Desktop\STAT 414\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6480FEC-1CEE-4B5E-960C-A15AE6B8DD70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2960BBAD-0133-4F0F-85A3-31DE3FD965C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Variable Chart</t>
   </si>
@@ -91,15 +91,9 @@
     <t>Team/Nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantitative </t>
   </si>
   <si>
-    <t>Meters</t>
-  </si>
-  <si>
     <t>Country GDP per capita</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>[-66.5,190]</t>
   </si>
   <si>
-    <t>[100, 42195]</t>
-  </si>
-  <si>
     <t>[1896, 2016]</t>
   </si>
   <si>
@@ -127,16 +118,37 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Minutes</t>
-  </si>
-  <si>
     <t>Observational unit: Olympic Track Athlete</t>
   </si>
   <si>
     <t>Level 1: Athlete</t>
   </si>
   <si>
-    <t>Level 2: Country of athlete</t>
+    <t>Level 2: Event</t>
+  </si>
+  <si>
+    <t>Level 3: Country of athlete</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Cm</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Minute:Second (?)</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -367,9 +379,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -387,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1551,33 +1566,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="256" width="16.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.65" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:256" ht="27.65" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+    <row r="2" spans="1:256" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+    <row r="3" spans="1:256" ht="20.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1611,24 +1627,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
+    <row r="4" spans="1:256" ht="20.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:256" ht="20" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1645,77 +1661,830 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:256" ht="20" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="13"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13"/>
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13"/>
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13"/>
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="13"/>
+      <c r="EM6" s="13"/>
+      <c r="EN6" s="13"/>
+      <c r="EO6" s="13"/>
+      <c r="EP6" s="13"/>
+      <c r="EQ6" s="13"/>
+      <c r="ER6" s="13"/>
+      <c r="ES6" s="13"/>
+      <c r="ET6" s="13"/>
+      <c r="EU6" s="13"/>
+      <c r="EV6" s="13"/>
+      <c r="EW6" s="13"/>
+      <c r="EX6" s="13"/>
+      <c r="EY6" s="13"/>
+      <c r="EZ6" s="13"/>
+      <c r="FA6" s="13"/>
+      <c r="FB6" s="13"/>
+      <c r="FC6" s="13"/>
+      <c r="FD6" s="13"/>
+      <c r="FE6" s="13"/>
+      <c r="FF6" s="13"/>
+      <c r="FG6" s="13"/>
+      <c r="FH6" s="13"/>
+      <c r="FI6" s="13"/>
+      <c r="FJ6" s="13"/>
+      <c r="FK6" s="13"/>
+      <c r="FL6" s="13"/>
+      <c r="FM6" s="13"/>
+      <c r="FN6" s="13"/>
+      <c r="FO6" s="13"/>
+      <c r="FP6" s="13"/>
+      <c r="FQ6" s="13"/>
+      <c r="FR6" s="13"/>
+      <c r="FS6" s="13"/>
+      <c r="FT6" s="13"/>
+      <c r="FU6" s="13"/>
+      <c r="FV6" s="13"/>
+      <c r="FW6" s="13"/>
+      <c r="FX6" s="13"/>
+      <c r="FY6" s="13"/>
+      <c r="FZ6" s="13"/>
+      <c r="GA6" s="13"/>
+      <c r="GB6" s="13"/>
+      <c r="GC6" s="13"/>
+      <c r="GD6" s="13"/>
+      <c r="GE6" s="13"/>
+      <c r="GF6" s="13"/>
+      <c r="GG6" s="13"/>
+      <c r="GH6" s="13"/>
+      <c r="GI6" s="13"/>
+      <c r="GJ6" s="13"/>
+      <c r="GK6" s="13"/>
+      <c r="GL6" s="13"/>
+      <c r="GM6" s="13"/>
+      <c r="GN6" s="13"/>
+      <c r="GO6" s="13"/>
+      <c r="GP6" s="13"/>
+      <c r="GQ6" s="13"/>
+      <c r="GR6" s="13"/>
+      <c r="GS6" s="13"/>
+      <c r="GT6" s="13"/>
+      <c r="GU6" s="13"/>
+      <c r="GV6" s="13"/>
+      <c r="GW6" s="13"/>
+      <c r="GX6" s="13"/>
+      <c r="GY6" s="13"/>
+      <c r="GZ6" s="13"/>
+      <c r="HA6" s="13"/>
+      <c r="HB6" s="13"/>
+      <c r="HC6" s="13"/>
+      <c r="HD6" s="13"/>
+      <c r="HE6" s="13"/>
+      <c r="HF6" s="13"/>
+      <c r="HG6" s="13"/>
+      <c r="HH6" s="13"/>
+      <c r="HI6" s="13"/>
+      <c r="HJ6" s="13"/>
+      <c r="HK6" s="13"/>
+      <c r="HL6" s="13"/>
+      <c r="HM6" s="13"/>
+      <c r="HN6" s="13"/>
+      <c r="HO6" s="13"/>
+      <c r="HP6" s="13"/>
+      <c r="HQ6" s="13"/>
+      <c r="HR6" s="13"/>
+      <c r="HS6" s="13"/>
+      <c r="HT6" s="13"/>
+      <c r="HU6" s="13"/>
+      <c r="HV6" s="13"/>
+      <c r="HW6" s="13"/>
+      <c r="HX6" s="13"/>
+      <c r="HY6" s="13"/>
+      <c r="HZ6" s="13"/>
+      <c r="IA6" s="13"/>
+      <c r="IB6" s="13"/>
+      <c r="IC6" s="13"/>
+      <c r="ID6" s="13"/>
+      <c r="IE6" s="13"/>
+      <c r="IF6" s="13"/>
+      <c r="IG6" s="13"/>
+      <c r="IH6" s="13"/>
+      <c r="II6" s="13"/>
+      <c r="IJ6" s="13"/>
+      <c r="IK6" s="13"/>
+      <c r="IL6" s="13"/>
+      <c r="IM6" s="13"/>
+      <c r="IN6" s="13"/>
+      <c r="IO6" s="13"/>
+      <c r="IP6" s="13"/>
+      <c r="IQ6" s="13"/>
+      <c r="IR6" s="13"/>
+      <c r="IS6" s="13"/>
+      <c r="IT6" s="13"/>
+      <c r="IU6" s="13"/>
+      <c r="IV6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    <row r="7" spans="1:256" ht="20" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="13"/>
+      <c r="BQ7" s="13"/>
+      <c r="BR7" s="13"/>
+      <c r="BS7" s="13"/>
+      <c r="BT7" s="13"/>
+      <c r="BU7" s="13"/>
+      <c r="BV7" s="13"/>
+      <c r="BW7" s="13"/>
+      <c r="BX7" s="13"/>
+      <c r="BY7" s="13"/>
+      <c r="BZ7" s="13"/>
+      <c r="CA7" s="13"/>
+      <c r="CB7" s="13"/>
+      <c r="CC7" s="13"/>
+      <c r="CD7" s="13"/>
+      <c r="CE7" s="13"/>
+      <c r="CF7" s="13"/>
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="13"/>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="13"/>
+      <c r="CL7" s="13"/>
+      <c r="CM7" s="13"/>
+      <c r="CN7" s="13"/>
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="13"/>
+      <c r="CQ7" s="13"/>
+      <c r="CR7" s="13"/>
+      <c r="CS7" s="13"/>
+      <c r="CT7" s="13"/>
+      <c r="CU7" s="13"/>
+      <c r="CV7" s="13"/>
+      <c r="CW7" s="13"/>
+      <c r="CX7" s="13"/>
+      <c r="CY7" s="13"/>
+      <c r="CZ7" s="13"/>
+      <c r="DA7" s="13"/>
+      <c r="DB7" s="13"/>
+      <c r="DC7" s="13"/>
+      <c r="DD7" s="13"/>
+      <c r="DE7" s="13"/>
+      <c r="DF7" s="13"/>
+      <c r="DG7" s="13"/>
+      <c r="DH7" s="13"/>
+      <c r="DI7" s="13"/>
+      <c r="DJ7" s="13"/>
+      <c r="DK7" s="13"/>
+      <c r="DL7" s="13"/>
+      <c r="DM7" s="13"/>
+      <c r="DN7" s="13"/>
+      <c r="DO7" s="13"/>
+      <c r="DP7" s="13"/>
+      <c r="DQ7" s="13"/>
+      <c r="DR7" s="13"/>
+      <c r="DS7" s="13"/>
+      <c r="DT7" s="13"/>
+      <c r="DU7" s="13"/>
+      <c r="DV7" s="13"/>
+      <c r="DW7" s="13"/>
+      <c r="DX7" s="13"/>
+      <c r="DY7" s="13"/>
+      <c r="DZ7" s="13"/>
+      <c r="EA7" s="13"/>
+      <c r="EB7" s="13"/>
+      <c r="EC7" s="13"/>
+      <c r="ED7" s="13"/>
+      <c r="EE7" s="13"/>
+      <c r="EF7" s="13"/>
+      <c r="EG7" s="13"/>
+      <c r="EH7" s="13"/>
+      <c r="EI7" s="13"/>
+      <c r="EJ7" s="13"/>
+      <c r="EK7" s="13"/>
+      <c r="EL7" s="13"/>
+      <c r="EM7" s="13"/>
+      <c r="EN7" s="13"/>
+      <c r="EO7" s="13"/>
+      <c r="EP7" s="13"/>
+      <c r="EQ7" s="13"/>
+      <c r="ER7" s="13"/>
+      <c r="ES7" s="13"/>
+      <c r="ET7" s="13"/>
+      <c r="EU7" s="13"/>
+      <c r="EV7" s="13"/>
+      <c r="EW7" s="13"/>
+      <c r="EX7" s="13"/>
+      <c r="EY7" s="13"/>
+      <c r="EZ7" s="13"/>
+      <c r="FA7" s="13"/>
+      <c r="FB7" s="13"/>
+      <c r="FC7" s="13"/>
+      <c r="FD7" s="13"/>
+      <c r="FE7" s="13"/>
+      <c r="FF7" s="13"/>
+      <c r="FG7" s="13"/>
+      <c r="FH7" s="13"/>
+      <c r="FI7" s="13"/>
+      <c r="FJ7" s="13"/>
+      <c r="FK7" s="13"/>
+      <c r="FL7" s="13"/>
+      <c r="FM7" s="13"/>
+      <c r="FN7" s="13"/>
+      <c r="FO7" s="13"/>
+      <c r="FP7" s="13"/>
+      <c r="FQ7" s="13"/>
+      <c r="FR7" s="13"/>
+      <c r="FS7" s="13"/>
+      <c r="FT7" s="13"/>
+      <c r="FU7" s="13"/>
+      <c r="FV7" s="13"/>
+      <c r="FW7" s="13"/>
+      <c r="FX7" s="13"/>
+      <c r="FY7" s="13"/>
+      <c r="FZ7" s="13"/>
+      <c r="GA7" s="13"/>
+      <c r="GB7" s="13"/>
+      <c r="GC7" s="13"/>
+      <c r="GD7" s="13"/>
+      <c r="GE7" s="13"/>
+      <c r="GF7" s="13"/>
+      <c r="GG7" s="13"/>
+      <c r="GH7" s="13"/>
+      <c r="GI7" s="13"/>
+      <c r="GJ7" s="13"/>
+      <c r="GK7" s="13"/>
+      <c r="GL7" s="13"/>
+      <c r="GM7" s="13"/>
+      <c r="GN7" s="13"/>
+      <c r="GO7" s="13"/>
+      <c r="GP7" s="13"/>
+      <c r="GQ7" s="13"/>
+      <c r="GR7" s="13"/>
+      <c r="GS7" s="13"/>
+      <c r="GT7" s="13"/>
+      <c r="GU7" s="13"/>
+      <c r="GV7" s="13"/>
+      <c r="GW7" s="13"/>
+      <c r="GX7" s="13"/>
+      <c r="GY7" s="13"/>
+      <c r="GZ7" s="13"/>
+      <c r="HA7" s="13"/>
+      <c r="HB7" s="13"/>
+      <c r="HC7" s="13"/>
+      <c r="HD7" s="13"/>
+      <c r="HE7" s="13"/>
+      <c r="HF7" s="13"/>
+      <c r="HG7" s="13"/>
+      <c r="HH7" s="13"/>
+      <c r="HI7" s="13"/>
+      <c r="HJ7" s="13"/>
+      <c r="HK7" s="13"/>
+      <c r="HL7" s="13"/>
+      <c r="HM7" s="13"/>
+      <c r="HN7" s="13"/>
+      <c r="HO7" s="13"/>
+      <c r="HP7" s="13"/>
+      <c r="HQ7" s="13"/>
+      <c r="HR7" s="13"/>
+      <c r="HS7" s="13"/>
+      <c r="HT7" s="13"/>
+      <c r="HU7" s="13"/>
+      <c r="HV7" s="13"/>
+      <c r="HW7" s="13"/>
+      <c r="HX7" s="13"/>
+      <c r="HY7" s="13"/>
+      <c r="HZ7" s="13"/>
+      <c r="IA7" s="13"/>
+      <c r="IB7" s="13"/>
+      <c r="IC7" s="13"/>
+      <c r="ID7" s="13"/>
+      <c r="IE7" s="13"/>
+      <c r="IF7" s="13"/>
+      <c r="IG7" s="13"/>
+      <c r="IH7" s="13"/>
+      <c r="II7" s="13"/>
+      <c r="IJ7" s="13"/>
+      <c r="IK7" s="13"/>
+      <c r="IL7" s="13"/>
+      <c r="IM7" s="13"/>
+      <c r="IN7" s="13"/>
+      <c r="IO7" s="13"/>
+      <c r="IP7" s="13"/>
+      <c r="IQ7" s="13"/>
+      <c r="IR7" s="13"/>
+      <c r="IS7" s="13"/>
+      <c r="IT7" s="13"/>
+      <c r="IU7" s="13"/>
+      <c r="IV7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:256" ht="20" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
+      <c r="BW8" s="13"/>
+      <c r="BX8" s="13"/>
+      <c r="BY8" s="13"/>
+      <c r="BZ8" s="13"/>
+      <c r="CA8" s="13"/>
+      <c r="CB8" s="13"/>
+      <c r="CC8" s="13"/>
+      <c r="CD8" s="13"/>
+      <c r="CE8" s="13"/>
+      <c r="CF8" s="13"/>
+      <c r="CG8" s="13"/>
+      <c r="CH8" s="13"/>
+      <c r="CI8" s="13"/>
+      <c r="CJ8" s="13"/>
+      <c r="CK8" s="13"/>
+      <c r="CL8" s="13"/>
+      <c r="CM8" s="13"/>
+      <c r="CN8" s="13"/>
+      <c r="CO8" s="13"/>
+      <c r="CP8" s="13"/>
+      <c r="CQ8" s="13"/>
+      <c r="CR8" s="13"/>
+      <c r="CS8" s="13"/>
+      <c r="CT8" s="13"/>
+      <c r="CU8" s="13"/>
+      <c r="CV8" s="13"/>
+      <c r="CW8" s="13"/>
+      <c r="CX8" s="13"/>
+      <c r="CY8" s="13"/>
+      <c r="CZ8" s="13"/>
+      <c r="DA8" s="13"/>
+      <c r="DB8" s="13"/>
+      <c r="DC8" s="13"/>
+      <c r="DD8" s="13"/>
+      <c r="DE8" s="13"/>
+      <c r="DF8" s="13"/>
+      <c r="DG8" s="13"/>
+      <c r="DH8" s="13"/>
+      <c r="DI8" s="13"/>
+      <c r="DJ8" s="13"/>
+      <c r="DK8" s="13"/>
+      <c r="DL8" s="13"/>
+      <c r="DM8" s="13"/>
+      <c r="DN8" s="13"/>
+      <c r="DO8" s="13"/>
+      <c r="DP8" s="13"/>
+      <c r="DQ8" s="13"/>
+      <c r="DR8" s="13"/>
+      <c r="DS8" s="13"/>
+      <c r="DT8" s="13"/>
+      <c r="DU8" s="13"/>
+      <c r="DV8" s="13"/>
+      <c r="DW8" s="13"/>
+      <c r="DX8" s="13"/>
+      <c r="DY8" s="13"/>
+      <c r="DZ8" s="13"/>
+      <c r="EA8" s="13"/>
+      <c r="EB8" s="13"/>
+      <c r="EC8" s="13"/>
+      <c r="ED8" s="13"/>
+      <c r="EE8" s="13"/>
+      <c r="EF8" s="13"/>
+      <c r="EG8" s="13"/>
+      <c r="EH8" s="13"/>
+      <c r="EI8" s="13"/>
+      <c r="EJ8" s="13"/>
+      <c r="EK8" s="13"/>
+      <c r="EL8" s="13"/>
+      <c r="EM8" s="13"/>
+      <c r="EN8" s="13"/>
+      <c r="EO8" s="13"/>
+      <c r="EP8" s="13"/>
+      <c r="EQ8" s="13"/>
+      <c r="ER8" s="13"/>
+      <c r="ES8" s="13"/>
+      <c r="ET8" s="13"/>
+      <c r="EU8" s="13"/>
+      <c r="EV8" s="13"/>
+      <c r="EW8" s="13"/>
+      <c r="EX8" s="13"/>
+      <c r="EY8" s="13"/>
+      <c r="EZ8" s="13"/>
+      <c r="FA8" s="13"/>
+      <c r="FB8" s="13"/>
+      <c r="FC8" s="13"/>
+      <c r="FD8" s="13"/>
+      <c r="FE8" s="13"/>
+      <c r="FF8" s="13"/>
+      <c r="FG8" s="13"/>
+      <c r="FH8" s="13"/>
+      <c r="FI8" s="13"/>
+      <c r="FJ8" s="13"/>
+      <c r="FK8" s="13"/>
+      <c r="FL8" s="13"/>
+      <c r="FM8" s="13"/>
+      <c r="FN8" s="13"/>
+      <c r="FO8" s="13"/>
+      <c r="FP8" s="13"/>
+      <c r="FQ8" s="13"/>
+      <c r="FR8" s="13"/>
+      <c r="FS8" s="13"/>
+      <c r="FT8" s="13"/>
+      <c r="FU8" s="13"/>
+      <c r="FV8" s="13"/>
+      <c r="FW8" s="13"/>
+      <c r="FX8" s="13"/>
+      <c r="FY8" s="13"/>
+      <c r="FZ8" s="13"/>
+      <c r="GA8" s="13"/>
+      <c r="GB8" s="13"/>
+      <c r="GC8" s="13"/>
+      <c r="GD8" s="13"/>
+      <c r="GE8" s="13"/>
+      <c r="GF8" s="13"/>
+      <c r="GG8" s="13"/>
+      <c r="GH8" s="13"/>
+      <c r="GI8" s="13"/>
+      <c r="GJ8" s="13"/>
+      <c r="GK8" s="13"/>
+      <c r="GL8" s="13"/>
+      <c r="GM8" s="13"/>
+      <c r="GN8" s="13"/>
+      <c r="GO8" s="13"/>
+      <c r="GP8" s="13"/>
+      <c r="GQ8" s="13"/>
+      <c r="GR8" s="13"/>
+      <c r="GS8" s="13"/>
+      <c r="GT8" s="13"/>
+      <c r="GU8" s="13"/>
+      <c r="GV8" s="13"/>
+      <c r="GW8" s="13"/>
+      <c r="GX8" s="13"/>
+      <c r="GY8" s="13"/>
+      <c r="GZ8" s="13"/>
+      <c r="HA8" s="13"/>
+      <c r="HB8" s="13"/>
+      <c r="HC8" s="13"/>
+      <c r="HD8" s="13"/>
+      <c r="HE8" s="13"/>
+      <c r="HF8" s="13"/>
+      <c r="HG8" s="13"/>
+      <c r="HH8" s="13"/>
+      <c r="HI8" s="13"/>
+      <c r="HJ8" s="13"/>
+      <c r="HK8" s="13"/>
+      <c r="HL8" s="13"/>
+      <c r="HM8" s="13"/>
+      <c r="HN8" s="13"/>
+      <c r="HO8" s="13"/>
+      <c r="HP8" s="13"/>
+      <c r="HQ8" s="13"/>
+      <c r="HR8" s="13"/>
+      <c r="HS8" s="13"/>
+      <c r="HT8" s="13"/>
+      <c r="HU8" s="13"/>
+      <c r="HV8" s="13"/>
+      <c r="HW8" s="13"/>
+      <c r="HX8" s="13"/>
+      <c r="HY8" s="13"/>
+      <c r="HZ8" s="13"/>
+      <c r="IA8" s="13"/>
+      <c r="IB8" s="13"/>
+      <c r="IC8" s="13"/>
+      <c r="ID8" s="13"/>
+      <c r="IE8" s="13"/>
+      <c r="IF8" s="13"/>
+      <c r="IG8" s="13"/>
+      <c r="IH8" s="13"/>
+      <c r="II8" s="13"/>
+      <c r="IJ8" s="13"/>
+      <c r="IK8" s="13"/>
+      <c r="IL8" s="13"/>
+      <c r="IM8" s="13"/>
+      <c r="IN8" s="13"/>
+      <c r="IO8" s="13"/>
+      <c r="IP8" s="13"/>
+      <c r="IQ8" s="13"/>
+      <c r="IR8" s="13"/>
+      <c r="IS8" s="13"/>
+      <c r="IT8" s="13"/>
+      <c r="IU8" s="13"/>
+      <c r="IV8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:256" ht="20" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:256" ht="20" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -1724,15 +2493,15 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:256" ht="20" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
@@ -1741,70 +2510,111 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:256" ht="20" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="20" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="20" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="20" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" ht="20" customHeight="1"/>
+    <row r="17" spans="2:5" ht="20" customHeight="1">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
+    <row r="18" spans="2:5" ht="19.899999999999999" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1"/>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
+    <row r="19" spans="2:5" ht="19.899999999999999" customHeight="1">
+      <c r="B19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
